--- a/schedules/ScheduleNew_v3.xlsx
+++ b/schedules/ScheduleNew_v3.xlsx
@@ -1050,8 +1050,8 @@
   <sheetPr/>
   <dimension ref="A1:J481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -1259,13 +1259,13 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>14</v>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>15</v>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>7</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="B125" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="B130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="2">
         <v>1</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="2">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="B148" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="D149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="2">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="B154" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="2">
         <v>1</v>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="D162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="B164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="B170" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" s="2">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="B177" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="B178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="B186" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" s="2">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="B188" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="2">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="B192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="B193" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" s="2">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="B194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" s="2">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="B195" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" s="2">
         <v>1</v>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" s="2">
         <v>1</v>
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="B202" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="B217" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" s="2">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="B218" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" s="2">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" s="2">
         <v>1</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="B224" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" s="2">
         <v>1</v>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="B232" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="B238" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
